--- a/PC5 Forrageio/pc5 dados.xlsx
+++ b/PC5 Forrageio/pc5 dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/Meu Drive/Ensino/EcoAnimal 2021/Praticas/PC5 Forrageio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/Documents/Ensino/Ecologia Animal/EcoAnimal 2022/Praticas/EcoAnimal/PC5 Forrageio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786B7E62-4DB5-4D44-9975-26E7D1BC6F78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6643FC10-2186-D949-B3FE-408852292F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="5640" windowWidth="28320" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="4" r:id="rId1"/>
@@ -1355,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9546D5B-D455-6F41-A289-67D897628839}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1519,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0056B3A6-978C-5F40-809E-5740A82D8F0F}">
   <dimension ref="A1:H366"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
